--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211436.3895303148</v>
+        <v>209230.2961238762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>11.48625992979872</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0301000117425</v>
+        <v>14.03010001174249</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>289.5028845293853</v>
       </c>
       <c r="I2" t="n">
         <v>161.4125322208643</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866688</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776874</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930304</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>28.30915711827853</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,7 +753,7 @@
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
         <v>65.9526390315485</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015506</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0353604252219</v>
+        <v>32.69244437499025</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.936446604247582</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.1774969961551</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>28.76455229025511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>214.543954164424</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.91827500188562</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>22.58276652364345</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5374474919545</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>315.2393469450206</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.16790000022172</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249728</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>114.2656173770972</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>3.718580593412586e-12</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.33742371512884</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>112.3514341322538</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056166</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>56.00855464855876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>102.2711134533575</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>111.932574808772</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>146.7210232472903</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>174.6219194306917</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>60.4207428419688</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.60848964033836</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>161.0046750111528</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.89403293327989</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>144.6811479392799</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.02146927219712</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>152.6586601346111</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849617</v>
       </c>
       <c r="D35" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880056</v>
+        <v>6.081513486880141</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213001</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
         <v>215.4997556728561</v>
       </c>
       <c r="V35" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
         <v>350.7425223700077</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958914</v>
+        <v>53.74008445776062</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125819</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
-        <v>110.9385463605232</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
         <v>109.2595986282749</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379228</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S37" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T37" t="n">
-        <v>24.66155699373854</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195669</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556655</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880041</v>
+        <v>6.08151348688007</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>73.69234550212992</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
         <v>215.4997556728561</v>
@@ -3569,7 +3569,7 @@
         <v>334.2356843924231</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958914</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125819</v>
+        <v>82.12429140109309</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321664</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605232</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>109.9256317368853</v>
@@ -3676,10 +3676,10 @@
         <v>130.5303919729823</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.2595986282749</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379218</v>
+        <v>60.8570041237922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.28422755349439</v>
+        <v>53.43673638400145</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.273609045396</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901233</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195669</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377821</v>
       </c>
       <c r="W40" t="n">
-        <v>251.027582050545</v>
+        <v>251.0275820505451</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660488</v>
+        <v>183.0892370660489</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>375.4263093674075</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012739</v>
+        <v>259.1123481012745</v>
       </c>
       <c r="I41" t="n">
         <v>6.081513486880027</v>
@@ -3797,7 +3797,7 @@
         <v>215.499755672856</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840882</v>
       </c>
       <c r="W41" t="n">
         <v>313.7455524313671</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247699</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3913,10 +3913,10 @@
         <v>130.5303919729823</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282748</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379217</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>53.43673638400141</v>
       </c>
       <c r="S43" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453959</v>
       </c>
       <c r="T43" t="n">
         <v>184.0535329901232</v>
@@ -3955,13 +3955,13 @@
         <v>250.7164219195669</v>
       </c>
       <c r="V43" t="n">
-        <v>186.6074860205966</v>
+        <v>216.642227037782</v>
       </c>
       <c r="W43" t="n">
-        <v>251.027582050545</v>
+        <v>147.4584682984341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>190.2142391029912</v>
       </c>
       <c r="Y43" t="n">
         <v>183.0892370660488</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012745</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880027</v>
+        <v>6.081513486880041</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550212991</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535742</v>
       </c>
       <c r="U44" t="n">
-        <v>215.499755672856</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
         <v>292.256842184089</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313663</v>
+        <v>313.7455524313671</v>
       </c>
       <c r="X44" t="n">
         <v>334.2356843924231</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247699</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,7 +4135,7 @@
         <v>144.3365638958913</v>
       </c>
       <c r="C46" t="n">
-        <v>131.7514048125819</v>
+        <v>28.84832416908102</v>
       </c>
       <c r="D46" t="n">
         <v>113.1200567321664</v>
@@ -4144,7 +4144,7 @@
         <v>110.9385463605232</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368853</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729823</v>
@@ -4153,7 +4153,7 @@
         <v>109.2595986282748</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379217</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400141</v>
       </c>
       <c r="S46" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453959</v>
       </c>
       <c r="T46" t="n">
         <v>184.0535329901232</v>
@@ -4192,10 +4192,10 @@
         <v>250.7164219195669</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>216.642227037782</v>
       </c>
       <c r="W46" t="n">
-        <v>247.4208289681511</v>
+        <v>251.027582050545</v>
       </c>
       <c r="X46" t="n">
         <v>190.2142391029912</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1052.101126475337</v>
+        <v>1637.861659872851</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.101126475337</v>
+        <v>1268.899142932439</v>
       </c>
       <c r="D2" t="n">
-        <v>1052.101126475337</v>
+        <v>910.6334443256885</v>
       </c>
       <c r="E2" t="n">
-        <v>1040.498843717964</v>
+        <v>524.8451917274442</v>
       </c>
       <c r="F2" t="n">
-        <v>629.5129389283566</v>
+        <v>517.8996909782408</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942732</v>
+        <v>503.7278727845614</v>
       </c>
       <c r="H2" t="n">
         <v>211.3007166942732</v>
@@ -4328,19 +4328,19 @@
         <v>48.25775485501634</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244785</v>
+        <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
         <v>406.6417666293502</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024637</v>
+        <v>785.5410436024638</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.74604078277</v>
+        <v>1223.746040782771</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400861</v>
+        <v>1654.409655400862</v>
       </c>
       <c r="O2" t="n">
         <v>2015.885456671745</v>
@@ -4352,28 +4352,28 @@
         <v>2412.887742750817</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045093</v>
+        <v>2412.887742750817</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045093</v>
+        <v>2231.04951802588</v>
       </c>
       <c r="T2" t="n">
-        <v>2122.532509153143</v>
+        <v>2011.32741813393</v>
       </c>
       <c r="U2" t="n">
-        <v>2122.532509153143</v>
+        <v>2011.32741813393</v>
       </c>
       <c r="V2" t="n">
-        <v>1791.469621809572</v>
+        <v>2011.32741813393</v>
       </c>
       <c r="W2" t="n">
-        <v>1438.700966539458</v>
+        <v>2011.32741813393</v>
       </c>
       <c r="X2" t="n">
-        <v>1438.700966539458</v>
+        <v>1637.861659872851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1438.700966539458</v>
+        <v>1637.861659872851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>751.4367136075316</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
-        <v>576.9836843264046</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>428.0492746651533</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>399.454166464872</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>252.919608491757</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
-        <v>114.8765821596108</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
@@ -4407,52 +4407,52 @@
         <v>48.25775485501634</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719584</v>
+        <v>48.25775485501634</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503521</v>
+        <v>282.4696009334101</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265955</v>
+        <v>658.8007278096535</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.890288538967</v>
+        <v>1149.940624122025</v>
       </c>
       <c r="N3" t="n">
-        <v>1732.736209861811</v>
+        <v>1669.786545444869</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.07411260221</v>
+        <v>1946.074112602211</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.44339364232</v>
+        <v>2257.443393642321</v>
       </c>
       <c r="Q3" t="n">
         <v>2412.887742750817</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750817</v>
+        <v>2354.42208984157</v>
       </c>
       <c r="S3" t="n">
-        <v>2252.245964543522</v>
+        <v>2321.399418755721</v>
       </c>
       <c r="T3" t="n">
-        <v>2052.831682881823</v>
+        <v>2121.985137094022</v>
       </c>
       <c r="U3" t="n">
-        <v>1824.653314558031</v>
+        <v>1893.80676877023</v>
       </c>
       <c r="V3" t="n">
-        <v>1589.501206326288</v>
+        <v>1658.654660538487</v>
       </c>
       <c r="W3" t="n">
-        <v>1335.263849598086</v>
+        <v>1404.417303810285</v>
       </c>
       <c r="X3" t="n">
-        <v>1127.412349392554</v>
+        <v>1196.565803604753</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.6520506275997</v>
+        <v>988.8055048397986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501634</v>
+        <v>400.2113848025537</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501634</v>
+        <v>241.4722979881435</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501634</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="J4" t="n">
         <v>48.25775485501634</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461036</v>
+        <v>91.87143294461038</v>
       </c>
       <c r="L4" t="n">
         <v>203.2083598384348</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534293</v>
+        <v>330.9866617534294</v>
       </c>
       <c r="N4" t="n">
-        <v>461.161297669286</v>
+        <v>461.1612976692861</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984535</v>
+        <v>565.3823477984536</v>
       </c>
       <c r="P4" t="n">
-        <v>631.040778697849</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.040778697849</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="R4" t="n">
-        <v>631.040778697849</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="S4" t="n">
-        <v>414.8104340319783</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="T4" t="n">
-        <v>414.8104340319783</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="U4" t="n">
-        <v>414.8104340319783</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="V4" t="n">
-        <v>276.2473057530337</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2473057530337</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501634</v>
+        <v>631.0407786978491</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501634</v>
+        <v>410.2481995543189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1040.216121848822</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1040.216121848822</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.216121848822</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>654.4278692505779</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888756</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1426.815961912944</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791651</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791651</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1060.400888678774</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C8" t="n">
-        <v>691.4383717383625</v>
+        <v>1629.256767270584</v>
       </c>
       <c r="D8" t="n">
-        <v>691.4383717383625</v>
+        <v>1270.991068663833</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1270.991068663833</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.000728742896</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>285.8510101265796</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9610626286692</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2536.153662641309</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3962.897130029547</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,19 +5069,19 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423064</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301115</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177757</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.093193329809</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V13" t="n">
-        <v>1751.093193329809</v>
+        <v>999.1036114208146</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838539</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858365</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423064</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5279,22 +5279,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5379,28 +5379,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121911</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1842.857169001416</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1621.090553570943</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626695</v>
+        <v>1331.987686696586</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208083</v>
+        <v>1077.303198490699</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838479</v>
+        <v>787.8860284537386</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858305</v>
+        <v>559.8964775557213</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423004</v>
+        <v>339.1038984121911</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,13 +5501,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,49 +5516,49 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>932.5990189467752</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.11783460013</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942215</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663145</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539788</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1899.769168479896</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1708.083284306722</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1486.316668876249</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.442238428365</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V19" t="n">
-        <v>1286.757750222479</v>
+        <v>942.5293137960052</v>
       </c>
       <c r="W19" t="n">
-        <v>1286.757750222479</v>
+        <v>653.1121437590446</v>
       </c>
       <c r="X19" t="n">
-        <v>1058.768199324461</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.768199324461</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5780,10 +5780,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5841,16 +5841,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.4007383484569</v>
+        <v>674.3568109459519</v>
       </c>
       <c r="C22" t="n">
-        <v>854.4007383484569</v>
+        <v>674.3568109459519</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>524.2401715336161</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>376.327077951223</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>376.327077951223</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>208.624241325942</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.140412319562</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1808.140412319562</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1553.455924113675</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W22" t="n">
-        <v>1264.038754076714</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>1036.049203178697</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y22" t="n">
-        <v>1036.049203178697</v>
+        <v>674.3568109459519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,49 +5990,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M23" t="n">
-        <v>1999.417367126749</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6090,28 +6090,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.5323180934834</v>
+        <v>727.0030950818859</v>
       </c>
       <c r="C25" t="n">
-        <v>657.5961351655765</v>
+        <v>558.066912153979</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4794957532407</v>
+        <v>558.066912153979</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532407</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553303</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1779.957688901984</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1490.854822027628</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V25" t="n">
-        <v>1236.170333821741</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>1236.170333821741</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>1008.180782923723</v>
+        <v>1129.444139055656</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.180782923723</v>
+        <v>908.6515599121257</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2368.748013620956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2915.526830679739</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3795.491481009194</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,34 +6315,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0669121539788</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0669121539788</v>
+        <v>487.0169919945845</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>487.0169919945845</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1793.712481244953</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1504.609614370596</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1249.925126164709</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>960.5079561277487</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X28" t="n">
-        <v>960.5079561277487</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.7153769842186</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,16 +6467,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686432</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689406</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1720.370435186191</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1431.267568311834</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>1176.583080105947</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7893082582081</v>
+        <v>887.1659100689867</v>
       </c>
       <c r="X31" t="n">
-        <v>998.7893082582081</v>
+        <v>887.1659100689867</v>
       </c>
       <c r="Y31" t="n">
-        <v>777.9967291146779</v>
+        <v>887.1659100689867</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,22 +6701,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>666.4259024757234</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1530.944718129078</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2064.476622801002</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.070220408989</v>
@@ -6777,28 +6777,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.3002584566048</v>
+        <v>300.0484256555948</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
         <v>242.4509819463048</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6874,7 +6874,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1802.142799302066</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.039932427709</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1258.355444221822</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>968.9382741848615</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>740.9487232868445</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>740.9487232868445</v>
+        <v>481.6968904858345</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2112.262965010018</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914097</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151837</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398084</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529669</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424542</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967273</v>
@@ -6941,16 +6941,16 @@
         <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.802653981899</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M35" t="n">
-        <v>2005.334558653823</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N35" t="n">
-        <v>2705.63569734487</v>
+        <v>3016.620626633428</v>
       </c>
       <c r="O35" t="n">
-        <v>3208.608168224207</v>
+        <v>3527.188889313974</v>
       </c>
       <c r="P35" t="n">
         <v>3921.963255671152</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>797.237485440697</v>
+        <v>858.7092067778615</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1552583572809</v>
+        <v>725.6269796944454</v>
       </c>
       <c r="D37" t="n">
-        <v>549.892574789436</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515337</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981142</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173241</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967273</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967273</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
         <v>755.6763338935368</v>
@@ -7117,28 +7117,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S37" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T37" t="n">
-        <v>2045.748870362743</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U37" t="n">
-        <v>1792.499959332878</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.669426971481</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W37" t="n">
-        <v>1320.106212779012</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.970617725485</v>
+        <v>912.9921203715591</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.0319944264459</v>
+        <v>912.9921203715591</v>
       </c>
     </row>
     <row r="38">
@@ -7151,64 +7151,64 @@
         <v>2112.262965010018</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151837</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529674</v>
+        <v>731.6764154529679</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424548</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571315</v>
+        <v>90.7282765957132</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386981</v>
+        <v>281.0602564399077</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285446</v>
+        <v>614.8796301297541</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576953</v>
+        <v>1065.913843378163</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.868354406782</v>
+        <v>2044.464146207991</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.647171465564</v>
+        <v>3024.216418434637</v>
       </c>
       <c r="O38" t="n">
-        <v>3462.12963363972</v>
+        <v>3527.188889313974</v>
       </c>
       <c r="P38" t="n">
-        <v>3856.903999996898</v>
+        <v>3921.963255671152</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.19036175258</v>
+        <v>4170.249617426834</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983636</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355221</v>
+        <v>4154.829971355222</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583934</v>
+        <v>3984.706179583935</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702263</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W38" t="n">
         <v>3154.906027777559</v>
@@ -7217,7 +7217,7 @@
         <v>2817.29422536097</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J39" t="n">
         <v>178.26260317029</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>748.3459758402096</v>
+        <v>582.2589880867716</v>
       </c>
       <c r="C40" t="n">
-        <v>615.2637487567936</v>
+        <v>499.3051583886977</v>
       </c>
       <c r="D40" t="n">
-        <v>501.0010651889487</v>
+        <v>499.3051583886977</v>
       </c>
       <c r="E40" t="n">
-        <v>388.9419274510464</v>
+        <v>499.3051583886977</v>
       </c>
       <c r="F40" t="n">
-        <v>277.9059357976269</v>
+        <v>388.2691667352782</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168365</v>
+        <v>256.420285954488</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168365</v>
+        <v>146.0570550168366</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967271</v>
+        <v>84.58533367967273</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497939</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218559</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935375</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
-        <v>1134.973841616272</v>
+        <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445322</v>
+        <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488921</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045765</v>
@@ -7354,28 +7354,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2182.770020348239</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2182.770020348239</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
-        <v>1996.857360762256</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U40" t="n">
-        <v>1743.60844973239</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V40" t="n">
-        <v>1524.777917370994</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.214703178524</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.079108124998</v>
+        <v>912.9921203715598</v>
       </c>
       <c r="Y40" t="n">
-        <v>894.1404848259584</v>
+        <v>728.0534970725205</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1779.154403914097</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151837</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398084</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529671</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424545</v>
+        <v>352.4579211424551</v>
       </c>
       <c r="H41" t="n">
         <v>90.72827659571314</v>
@@ -7409,25 +7409,25 @@
         <v>84.58533367967271</v>
       </c>
       <c r="J41" t="n">
-        <v>405.1746961523577</v>
+        <v>273.4644646386981</v>
       </c>
       <c r="K41" t="n">
-        <v>1059.898028287657</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1510.932241536066</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M41" t="n">
-        <v>2044.46414620799</v>
+        <v>1591.849956248877</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434637</v>
+        <v>2571.602228475524</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313974</v>
+        <v>3451.566878804978</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671151</v>
+        <v>3846.341245162156</v>
       </c>
       <c r="Q41" t="n">
         <v>4170.249617426834</v>
@@ -7445,16 +7445,16 @@
         <v>3767.029658702262</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777558</v>
+        <v>3154.906027777559</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360969</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.6170717285975</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C42" t="n">
-        <v>785.1640424474705</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807637</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
         <v>84.58533367967271</v>
@@ -7512,25 +7512,25 @@
         <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.7092067778609</v>
+        <v>686.8742545030454</v>
       </c>
       <c r="C43" t="n">
-        <v>725.6269796944448</v>
+        <v>553.7920274196294</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3642961265998</v>
+        <v>439.5293438517846</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886976</v>
+        <v>327.4702061138823</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352781</v>
+        <v>216.4342144604629</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544878</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0570550168365</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="I43" t="n">
         <v>84.58533367967271</v>
@@ -7570,49 +7570,49 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935372</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.522680445322</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488921</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045766</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321466</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923485</v>
       </c>
       <c r="S43" t="n">
-        <v>2070.659533992783</v>
+        <v>2016.683032594802</v>
       </c>
       <c r="T43" t="n">
-        <v>1884.7468744068</v>
+        <v>1830.770373008819</v>
       </c>
       <c r="U43" t="n">
-        <v>1631.497963376934</v>
+        <v>1577.521461978953</v>
       </c>
       <c r="V43" t="n">
-        <v>1443.005553255119</v>
+        <v>1358.690929617557</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.442339062649</v>
+        <v>1209.74298184136</v>
       </c>
       <c r="X43" t="n">
-        <v>1189.442339062649</v>
+        <v>1017.607386787834</v>
       </c>
       <c r="Y43" t="n">
-        <v>1004.50371576361</v>
+        <v>832.6687634887943</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1779.154403914097</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151837</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398084</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529674</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424551</v>
+        <v>352.4579211424548</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571314</v>
+        <v>90.72827659571315</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967271</v>
@@ -7649,25 +7649,25 @@
         <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285446</v>
+        <v>797.2985829156357</v>
       </c>
       <c r="L44" t="n">
-        <v>1127.292264772045</v>
+        <v>1248.332796164044</v>
       </c>
       <c r="M44" t="n">
-        <v>1660.824169443969</v>
+        <v>1781.864700835969</v>
       </c>
       <c r="N44" t="n">
-        <v>2640.576441670616</v>
+        <v>2328.643517894751</v>
       </c>
       <c r="O44" t="n">
-        <v>3143.548912549953</v>
+        <v>3208.608168224206</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.903999996898</v>
+        <v>3921.963255671151</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.19036175258</v>
+        <v>4170.249617426834</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983636</v>
@@ -7691,7 +7691,7 @@
         <v>2817.29422536097</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229649</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285975</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474705</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807637</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
         <v>84.58533367967271</v>
@@ -7749,25 +7749,25 @@
         <v>2583.12675978083</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.7092067778608</v>
+        <v>582.2589880867715</v>
       </c>
       <c r="C46" t="n">
-        <v>725.6269796944448</v>
+        <v>553.1192667038614</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961265998</v>
+        <v>438.8565831360165</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886976</v>
+        <v>326.7974453981143</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352781</v>
+        <v>326.7974453981143</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544878</v>
+        <v>194.9485646173241</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168365</v>
+        <v>84.58533367967271</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967271</v>
@@ -7807,10 +7807,10 @@
         <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935369</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321465</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406799</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376934</v>
+        <v>1577.521461978953</v>
       </c>
       <c r="V46" t="n">
-        <v>1631.497963376934</v>
+        <v>1358.690929617557</v>
       </c>
       <c r="W46" t="n">
-        <v>1381.577934116176</v>
+        <v>1105.127715425087</v>
       </c>
       <c r="X46" t="n">
-        <v>1189.442339062649</v>
+        <v>912.9921203715603</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.50371576361</v>
+        <v>728.0534970725204</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.50551572733599</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>196.0806254639771</v>
+        <v>259.6661450770501</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>48.502567723494</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>29.61882225792215</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>401.5033668799372</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>148.4180109385414</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>96.13798426930805</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M23" t="n">
-        <v>76.45227440777433</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>283.3156027685506</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,10 +10124,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>133.2530576400267</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65289230147192</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,19 +10589,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>155.073052153802</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>7.672516970918423</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.672516970918821</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>379.3030215099192</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>133.0406378925854</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>76.38586920100519</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4.583000645652646e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>191.9340854415063</v>
       </c>
       <c r="L44" t="n">
-        <v>69.67092241928441</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.583000645652646e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.556976973655026</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>171.9462208285156</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.4945564668085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>77.41759119918812</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>32.92359802148859</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.9407247522554</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>32.82244010554873</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24178,10 +24178,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>72.82792602887889</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>44.92702984547747</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>165.2889125470683</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>94.63833145828947</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>58.54427426501637</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9379472486574</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>74.86780133688927</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.2253518264307</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>66.89028914155813</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>90.59647943813084</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379219</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400142</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>159.3919759963847</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>183.089237066049</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>49.62711341148885</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321664</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282748</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.152508830507</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453959</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.2595986282748</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379218</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400139</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>30.03474101718551</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.5691137521109</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029912</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>102.9030806435009</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368853</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379217</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400139</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>216.642227037782</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>3.606753082393951</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="F2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="G2" t="n">
         <v>337519.5188539357</v>
@@ -26332,25 +26332,25 @@
         <v>337519.5188539357</v>
       </c>
       <c r="I2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="J2" t="n">
-        <v>337519.5188539356</v>
+        <v>337519.5188539357</v>
       </c>
       <c r="K2" t="n">
         <v>337519.5188539356</v>
       </c>
       <c r="L2" t="n">
-        <v>337519.518853936</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="M2" t="n">
-        <v>346151.1578839778</v>
+        <v>346151.1578839776</v>
       </c>
       <c r="N2" t="n">
         <v>346151.1578839778</v>
       </c>
       <c r="O2" t="n">
-        <v>346151.1578839776</v>
+        <v>346151.1578839778</v>
       </c>
       <c r="P2" t="n">
         <v>346151.1578839778</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.142839428</v>
+        <v>507203.1428394282</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217417924</v>
+        <v>78665.28217417904</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>157829.4001410737</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022141</v>
+        <v>18289.94367022138</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881749</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499385</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499379</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.72367499379</v>
-      </c>
       <c r="I4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499383</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499384</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>25090.72367499385</v>
       </c>
-      <c r="L4" t="n">
-        <v>25090.72367499384</v>
-      </c>
       <c r="M4" t="n">
+        <v>53328.24410000359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53328.24410000367</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53328.24410000371</v>
+      </c>
+      <c r="P4" t="n">
         <v>53328.24410000368</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53328.24410000366</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53328.24410000369</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53328.24410000369</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133441</v>
+        <v>77204.68871133443</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,10 +26500,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>91026.04982123675</v>
+      </c>
+      <c r="N5" t="n">
         <v>91026.04982123677</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91026.04982123675</v>
       </c>
       <c r="O5" t="n">
         <v>91026.04982123675</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-458707.9882039972</v>
+        <v>-458707.9882039973</v>
       </c>
       <c r="C6" t="n">
-        <v>-13646.1139729998</v>
+        <v>-13646.1139729995</v>
       </c>
       <c r="D6" t="n">
-        <v>65019.16820117959</v>
+        <v>65019.16820117933</v>
       </c>
       <c r="E6" t="n">
-        <v>-511332.1370681783</v>
+        <v>-511399.3325584043</v>
       </c>
       <c r="F6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="G6" t="n">
-        <v>216045.2769252282</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="H6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350025</v>
       </c>
       <c r="I6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="J6" t="n">
-        <v>58215.87678415442</v>
+        <v>58148.68129392873</v>
       </c>
       <c r="K6" t="n">
-        <v>197755.3332550067</v>
+        <v>197688.137764781</v>
       </c>
       <c r="L6" t="n">
-        <v>216045.2769252285</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="M6" t="n">
-        <v>77948.07277456227</v>
+        <v>77931.65163157209</v>
       </c>
       <c r="N6" t="n">
-        <v>201796.8639627373</v>
+        <v>201780.442819747</v>
       </c>
       <c r="O6" t="n">
-        <v>201796.8639627372</v>
+        <v>201780.442819747</v>
       </c>
       <c r="P6" t="n">
-        <v>201796.8639627373</v>
+        <v>201780.4428197471</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="O2" t="n">
         <v>35.49541628604594</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688989</v>
+        <v>316.568578968899</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877043</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688989</v>
+        <v>316.568578968899</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818783</v>
+        <v>61.17508524818766</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877043</v>
       </c>
       <c r="C4" t="n">
-        <v>71.0653370668514</v>
+        <v>71.06533706685127</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877043</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668514</v>
+        <v>71.06533706685127</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877042</v>
+        <v>603.2219356877043</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668514</v>
+        <v>71.06533706685127</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>370.444110142463</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>36.93851875476281</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866686</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.3359233371224</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015508</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>126.3429160502317</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>157.4836713823001</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1516959462661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255596</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739066</v>
+        <v>38.36018782739064</v>
       </c>
       <c r="R4" t="n">
         <v>151.6253882365109</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.0680412192119</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27594,16 +27594,16 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>114.9601463276729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>378.1114934514563</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>134.6970145529891</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>122.3915272571653</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>203.1268888653937</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>95.3929225803073</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>91.63669879669084</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>83.14190225882919</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-3.718580593412586e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.718580593412586e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604592</v>
+        <v>35.49541628604584</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604591</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>35.49541628604594</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604652</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="I41" t="n">
         <v>35.49541628604594</v>
@@ -30517,7 +30517,7 @@
         <v>35.49541628604594</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604675</v>
       </c>
       <c r="W41" t="n">
         <v>35.49541628604594</v>
@@ -30757,7 +30757,7 @@
         <v>35.49541628604594</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604675</v>
+        <v>35.49541628604594</v>
       </c>
       <c r="X44" t="n">
         <v>35.49541628604594</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392557</v>
+        <v>1.272637503392558</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161903</v>
+        <v>13.03339883161904</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954161</v>
+        <v>49.06335734954163</v>
       </c>
       <c r="J2" t="n">
         <v>108.0135173035642</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221711</v>
+        <v>161.8842628221712</v>
       </c>
       <c r="L2" t="n">
         <v>200.8317428166212</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175785</v>
+        <v>223.4640100175786</v>
       </c>
       <c r="N2" t="n">
         <v>227.0798913240927</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497329</v>
+        <v>214.425102149733</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847291</v>
+        <v>183.0068637847292</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944831</v>
+        <v>137.4305331944832</v>
       </c>
       <c r="R2" t="n">
-        <v>79.9423155724828</v>
+        <v>79.94231557248283</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855793</v>
+        <v>29.00022710855794</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100922</v>
+        <v>5.570970671100924</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714046</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859334</v>
+        <v>0.6809210943859336</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674673</v>
+        <v>6.576264253674676</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986657</v>
+        <v>23.44399381986658</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933068</v>
+        <v>64.3321109393307</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631882</v>
+        <v>109.9538242631883</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665598</v>
+        <v>147.8464858665599</v>
       </c>
       <c r="M3" t="n">
         <v>172.5298755380499</v>
@@ -31142,25 +31142,25 @@
         <v>177.0962279648749</v>
       </c>
       <c r="O3" t="n">
-        <v>162.008450031376</v>
+        <v>162.0084500313761</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674332</v>
+        <v>130.0260640674333</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915881</v>
+        <v>86.91898039915884</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248806</v>
+        <v>42.27683777248807</v>
       </c>
       <c r="S3" t="n">
-        <v>12.6478106786159</v>
+        <v>12.64781067861591</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739792</v>
+        <v>2.744589849739793</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012722</v>
+        <v>0.04479744042012723</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111291</v>
+        <v>0.5708613719111292</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173496</v>
+        <v>5.075476561173498</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801832</v>
+        <v>17.16735834801833</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411682</v>
+        <v>40.35989899411683</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840207</v>
+        <v>66.32371211840209</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667823</v>
+        <v>84.87151705667827</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148724</v>
+        <v>89.48511487148727</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890947</v>
+        <v>87.3573588489095</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522034</v>
+        <v>80.68866009522037</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823325</v>
+        <v>69.04308810823328</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430372</v>
+        <v>47.80185542430375</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065858</v>
+        <v>25.66800314065859</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760309</v>
+        <v>9.948556817760313</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711187</v>
+        <v>2.439134952711188</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333435</v>
+        <v>0.03113789301333436</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895164</v>
+        <v>96.06422794895168</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483553</v>
+        <v>265.9398243483554</v>
       </c>
       <c r="L2" t="n">
         <v>382.7265423970844</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831383</v>
+        <v>442.6313102831384</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394859</v>
+        <v>435.013752139486</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907915</v>
+        <v>365.1270719907916</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009422</v>
+        <v>273.5725762009423</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799383</v>
+        <v>127.4398339799384</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307282</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014078</v>
+        <v>236.5776223014079</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901448</v>
+        <v>380.1324513901449</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660314</v>
+        <v>496.1009053660315</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250951</v>
+        <v>525.0968902250952</v>
       </c>
       <c r="O3" t="n">
-        <v>215.4928310509087</v>
+        <v>279.0783506639818</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930401</v>
+        <v>314.5144252930402</v>
       </c>
       <c r="Q3" t="n">
         <v>157.0144940489864</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251922</v>
+        <v>44.05422029251923</v>
       </c>
       <c r="L4" t="n">
         <v>112.4615423169944</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333278</v>
+        <v>129.0689918333279</v>
       </c>
       <c r="N4" t="n">
-        <v>131.489531228138</v>
+        <v>131.4895312281381</v>
       </c>
       <c r="O4" t="n">
         <v>105.27378800926</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312674</v>
+        <v>66.32164737312677</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>447.2645539428656</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702001</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>568.5399380881487</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>953.8052022928484</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35884,10 +35884,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>485.6092974939418</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35902,10 +35902,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>635.0591000995346</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36358,28 +36358,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3733902380009</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>682.0775889879222</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36844,10 +36844,10 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0150438593984</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>385.8441788568723</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37309,19 +37309,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>707.3748875667133</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>515.7255178591374</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911212</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>198.4595179396313</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37552,10 +37552,10 @@
         <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>887.3560223981382</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911211</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
         <v>355.252788456244</v>
@@ -37713,13 +37713,13 @@
         <v>380.352362453586</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.8276388612979</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37792,13 +37792,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>327.1801740047246</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -38017,19 +38017,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>529.1253719969067</v>
       </c>
       <c r="L44" t="n">
-        <v>525.2610368116163</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
